--- a/ReportWebApplication/Temp/201706/G01315-01912001-01912001-201706-BT-M-01.xlsx
+++ b/ReportWebApplication/Temp/201706/G01315-01912001-01912001-201706-BT-M-01.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="416" uniqueCount="416">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="418" uniqueCount="418">
   <si>
     <t>G01315</t>
   </si>
@@ -261,12 +261,15 @@
     <t>Cho vay khách hàng</t>
   </si>
   <si>
+    <t>131483297592,0</t>
+  </si>
+  <si>
+    <t>R-115</t>
+  </si>
+  <si>
     <t>132599031000,0</t>
   </si>
   <si>
-    <t>R-115</t>
-  </si>
-  <si>
     <t>R-116</t>
   </si>
   <si>
@@ -591,7 +594,7 @@
     <t>Dự phòng rủi ro cho vay khách hàng</t>
   </si>
   <si>
-    <t>1115733408,0</t>
+    <t>-1115733408,0</t>
   </si>
   <si>
     <t>R-159</t>
@@ -603,7 +606,7 @@
     <t>Dự phòng chung</t>
   </si>
   <si>
-    <t>649422158,0</t>
+    <t>-649422158,0</t>
   </si>
   <si>
     <t>R-160</t>
@@ -684,15 +687,21 @@
     <t>Dự phòng cụ thể</t>
   </si>
   <si>
-    <t>466311250,0</t>
+    <t>-466311250,0</t>
   </si>
   <si>
     <t>R-163</t>
   </si>
   <si>
+    <t>-467561250,0</t>
+  </si>
+  <si>
     <t>R-164</t>
   </si>
   <si>
+    <t>1250000,0</t>
+  </si>
+  <si>
     <t>R-165</t>
   </si>
   <si>
@@ -768,7 +777,7 @@
     <t>Tài sản cố định</t>
   </si>
   <si>
-    <t>426773559,0</t>
+    <t>26484861,0</t>
   </si>
   <si>
     <t>R-179</t>
@@ -792,7 +801,7 @@
     <t>Hao mòn TSCĐ</t>
   </si>
   <si>
-    <t>200144349,0</t>
+    <t>-200144349,0</t>
   </si>
   <si>
     <t>R-182</t>
@@ -1005,7 +1014,7 @@
     <t>TỔNG TÀI SẢN CÓ</t>
   </si>
   <si>
-    <t>173106604858,0</t>
+    <t>171590582752,0</t>
   </si>
   <si>
     <t>R-216</t>
@@ -1291,7 +1300,7 @@
     <t>Các khoản nợ khác</t>
   </si>
   <si>
-    <t>4614060536,0</t>
+    <t>4800320897,0</t>
   </si>
   <si>
     <t>R-239</t>
@@ -1315,7 +1324,7 @@
     <t>Các khoản phải trả và công nợ khác</t>
   </si>
   <si>
-    <t>2955797609,0</t>
+    <t>3142057970,0</t>
   </si>
   <si>
     <t>R-242</t>
@@ -1378,7 +1387,7 @@
     <t>TỔNG NỢ PHẢI TRẢ</t>
   </si>
   <si>
-    <t>150859424561,0</t>
+    <t>151045684922,0</t>
   </si>
   <si>
     <t>R-252</t>
@@ -1527,9 +1536,6 @@
   </si>
   <si>
     <t>TỔNG NỢ PHẢI TRẢ, VỐN CHỦ SỞ HỮU</t>
-  </si>
-  <si>
-    <t>171404322391,0</t>
   </si>
   <si>
     <t>Help</t>
@@ -2420,84 +2426,84 @@
         <v>62</v>
       </c>
       <c r="D32" s="13" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="B33" s="8" t="s">
+        <v>67</v>
+      </c>
+      <c r="C33" s="14" t="s">
+        <v>68</v>
+      </c>
+      <c r="D33" s="13" t="s">
         <v>65</v>
-      </c>
-      <c r="B33" s="8" t="s">
-        <v>66</v>
-      </c>
-      <c r="C33" s="14" t="s">
-        <v>67</v>
-      </c>
-      <c r="D33" s="13" t="s">
-        <v>63</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="1" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B34" s="8" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="C34" s="14" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="D34" s="13"/>
     </row>
     <row r="35">
       <c r="A35" s="1" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="B35" s="8" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="C35" s="14" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="D35" s="13"/>
     </row>
     <row r="36">
       <c r="A36" s="1" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="B36" s="8" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="C36" s="14" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="D36" s="13" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="1" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="B37" s="8" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="C37" s="14" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="D37" s="13" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="1" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="B38" s="8" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="C38" s="14" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="D38" s="13" t="s">
         <v>32</v>
@@ -2505,27 +2511,27 @@
     </row>
     <row r="39">
       <c r="A39" s="1" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B39" s="8" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="C39" s="14" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="D39" s="13" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="1" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="B40" s="8" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="C40" s="14" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="D40" s="13" t="s">
         <v>32</v>
@@ -2533,69 +2539,69 @@
     </row>
     <row r="41">
       <c r="A41" s="1" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B41" s="8" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="C41" s="14" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="D41" s="13" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="1" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="B42" s="8" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="C42" s="14" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="D42" s="13" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="1" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="B43" s="8" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="C43" s="14" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="D43" s="13" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="1" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="B44" s="8" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="C44" s="14" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="D44" s="13" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="1" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="B45" s="8" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="C45" s="14" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="D45" s="13" t="s">
         <v>32</v>
@@ -2603,789 +2609,789 @@
     </row>
     <row r="46" ht="28.5">
       <c r="A46" s="1" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="B46" s="8" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="C46" s="14" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="D46" s="13" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="1" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="B47" s="8" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="C47" s="14" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="D47" s="13"/>
     </row>
     <row r="48">
       <c r="A48" s="1" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="B48" s="8" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="C48" s="14" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="D48" s="13"/>
     </row>
     <row r="49" ht="28.5">
       <c r="A49" s="1" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="B49" s="8" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="C49" s="14" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="D49" s="13"/>
     </row>
     <row r="50">
       <c r="A50" s="1" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="B50" s="8" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="C50" s="14" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="D50" s="13" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="1" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="B51" s="8" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="C51" s="14" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="D51" s="13" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="1" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="B52" s="8" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="C52" s="14" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="D52" s="13" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" s="1" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="B53" s="8" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="C53" s="14" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="D53" s="13" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" s="1" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="B54" s="8" t="s">
         <v>47</v>
       </c>
       <c r="C54" s="14" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="D54" s="13"/>
     </row>
     <row r="55">
       <c r="A55" s="1" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="B55" s="8" t="s">
         <v>47</v>
       </c>
       <c r="C55" s="14" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="D55" s="13"/>
     </row>
     <row r="56" ht="28.5">
       <c r="A56" s="1" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="B56" s="8" t="s">
         <v>47</v>
       </c>
       <c r="C56" s="14" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="D56" s="13"/>
     </row>
     <row r="57" ht="28.5">
       <c r="A57" s="1" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="B57" s="8" t="s">
         <v>47</v>
       </c>
       <c r="C57" s="14" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="D57" s="13"/>
     </row>
     <row r="58">
       <c r="A58" s="1" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="B58" s="8" t="s">
         <v>47</v>
       </c>
       <c r="C58" s="14" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="D58" s="13" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" s="1" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="B59" s="8" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="C59" s="14" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="D59" s="13" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
     </row>
     <row r="60" ht="28.5">
       <c r="A60" s="1" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="B60" s="8" t="s">
         <v>47</v>
       </c>
       <c r="C60" s="14" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="D60" s="13" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" s="1" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="B61" s="8" t="s">
         <v>47</v>
       </c>
       <c r="C61" s="14" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="D61" s="13"/>
     </row>
     <row r="62">
       <c r="A62" s="1" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="B62" s="8" t="s">
         <v>47</v>
       </c>
       <c r="C62" s="14" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="D62" s="13"/>
     </row>
     <row r="63">
       <c r="A63" s="1" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="B63" s="8" t="s">
         <v>47</v>
       </c>
       <c r="C63" s="14" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="D63" s="13"/>
     </row>
     <row r="64">
       <c r="A64" s="1" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="B64" s="8" t="s">
         <v>47</v>
       </c>
       <c r="C64" s="14" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="D64" s="13"/>
     </row>
     <row r="65">
       <c r="A65" s="1" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="B65" s="8" t="s">
         <v>47</v>
       </c>
       <c r="C65" s="14" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="D65" s="13"/>
     </row>
     <row r="66">
       <c r="A66" s="1" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="B66" s="8" t="s">
         <v>47</v>
       </c>
       <c r="C66" s="14" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="D66" s="13"/>
     </row>
     <row r="67">
       <c r="A67" s="1" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="B67" s="8" t="s">
         <v>47</v>
       </c>
       <c r="C67" s="14" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="D67" s="13"/>
     </row>
     <row r="68" ht="42.75">
       <c r="A68" s="1" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="B68" s="8" t="s">
         <v>47</v>
       </c>
       <c r="C68" s="14" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="D68" s="13"/>
     </row>
     <row r="69">
       <c r="A69" s="1" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="B69" s="8" t="s">
         <v>47</v>
       </c>
       <c r="C69" s="14" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="D69" s="13" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" s="1" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="B70" s="8" t="s">
         <v>47</v>
       </c>
       <c r="C70" s="14" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="D70" s="13" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" s="1" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="B71" s="8" t="s">
         <v>47</v>
       </c>
       <c r="C71" s="14" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="D71" s="13"/>
     </row>
     <row r="72">
       <c r="A72" s="1" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="B72" s="8" t="s">
         <v>47</v>
       </c>
       <c r="C72" s="14" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="D72" s="13" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
     </row>
     <row r="73" ht="42.75">
       <c r="A73" s="1" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="B73" s="8" t="s">
         <v>47</v>
       </c>
       <c r="C73" s="14" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="D73" s="13"/>
     </row>
     <row r="74">
       <c r="A74" s="1" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="B74" s="8" t="s">
         <v>47</v>
       </c>
       <c r="C74" s="14" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="D74" s="13"/>
     </row>
     <row r="75">
       <c r="A75" s="1" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="B75" s="8" t="s">
         <v>37</v>
       </c>
       <c r="C75" s="14" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="D75" s="13" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" s="1" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="B76" s="8" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="C76" s="14" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="D76" s="13" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
     </row>
     <row r="77" ht="28.5">
       <c r="A77" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="B77" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="C77" s="14" t="s">
+        <v>180</v>
+      </c>
+      <c r="D77" s="13" t="s">
         <v>178</v>
-      </c>
-      <c r="B77" s="8" t="s">
-        <v>47</v>
-      </c>
-      <c r="C77" s="14" t="s">
-        <v>179</v>
-      </c>
-      <c r="D77" s="13" t="s">
-        <v>32</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" s="1" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="B78" s="8" t="s">
         <v>47</v>
       </c>
       <c r="C78" s="14" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="D78" s="13" t="s">
-        <v>177</v>
+        <v>32</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" s="1" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="B79" s="8" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="C79" s="14" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="D79" s="13" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
     </row>
     <row r="80" ht="28.5">
       <c r="A80" s="1" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="B80" s="8" t="s">
         <v>47</v>
       </c>
       <c r="C80" s="14" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="D80" s="13" t="s">
-        <v>32</v>
+        <v>188</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" s="1" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="B81" s="8" t="s">
         <v>47</v>
       </c>
       <c r="C81" s="14" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="D81" s="13" t="s">
-        <v>185</v>
+        <v>190</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" s="1" t="s">
-        <v>188</v>
+        <v>191</v>
       </c>
       <c r="B82" s="8" t="s">
-        <v>189</v>
+        <v>192</v>
       </c>
       <c r="C82" s="14" t="s">
-        <v>190</v>
+        <v>193</v>
       </c>
       <c r="D82" s="13"/>
     </row>
     <row r="83">
       <c r="A83" s="1" t="s">
-        <v>191</v>
+        <v>194</v>
       </c>
       <c r="B83" s="8" t="s">
         <v>34</v>
       </c>
       <c r="C83" s="14" t="s">
-        <v>192</v>
+        <v>195</v>
       </c>
       <c r="D83" s="13"/>
     </row>
     <row r="84" ht="28.5">
       <c r="A84" s="1" t="s">
-        <v>193</v>
+        <v>196</v>
       </c>
       <c r="B84" s="8" t="s">
         <v>47</v>
       </c>
       <c r="C84" s="14" t="s">
-        <v>194</v>
+        <v>197</v>
       </c>
       <c r="D84" s="13"/>
     </row>
     <row r="85">
       <c r="A85" s="1" t="s">
-        <v>195</v>
+        <v>198</v>
       </c>
       <c r="B85" s="8" t="s">
         <v>47</v>
       </c>
       <c r="C85" s="14" t="s">
-        <v>196</v>
+        <v>199</v>
       </c>
       <c r="D85" s="13"/>
     </row>
     <row r="86">
       <c r="A86" s="1" t="s">
-        <v>197</v>
+        <v>200</v>
       </c>
       <c r="B86" s="8" t="s">
         <v>47</v>
       </c>
       <c r="C86" s="14" t="s">
-        <v>198</v>
+        <v>201</v>
       </c>
       <c r="D86" s="13"/>
     </row>
     <row r="87">
       <c r="A87" s="1" t="s">
-        <v>199</v>
+        <v>202</v>
       </c>
       <c r="B87" s="8" t="s">
         <v>47</v>
       </c>
       <c r="C87" s="14" t="s">
-        <v>200</v>
+        <v>203</v>
       </c>
       <c r="D87" s="13"/>
     </row>
     <row r="88" ht="28.5">
       <c r="A88" s="1" t="s">
-        <v>201</v>
+        <v>204</v>
       </c>
       <c r="B88" s="8" t="s">
         <v>47</v>
       </c>
       <c r="C88" s="14" t="s">
-        <v>202</v>
+        <v>205</v>
       </c>
       <c r="D88" s="13"/>
     </row>
     <row r="89">
       <c r="A89" s="1" t="s">
-        <v>203</v>
+        <v>206</v>
       </c>
       <c r="B89" s="8" t="s">
         <v>47</v>
       </c>
       <c r="C89" s="14" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="D89" s="13"/>
     </row>
     <row r="90">
       <c r="A90" s="1" t="s">
-        <v>204</v>
+        <v>207</v>
       </c>
       <c r="B90" s="8" t="s">
         <v>47</v>
       </c>
       <c r="C90" s="14" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="D90" s="13"/>
     </row>
     <row r="91">
       <c r="A91" s="1" t="s">
-        <v>205</v>
+        <v>208</v>
       </c>
       <c r="B91" s="8" t="s">
         <v>47</v>
       </c>
       <c r="C91" s="14" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="D91" s="13"/>
     </row>
     <row r="92">
       <c r="A92" s="1" t="s">
-        <v>206</v>
+        <v>209</v>
       </c>
       <c r="B92" s="8" t="s">
         <v>47</v>
       </c>
       <c r="C92" s="14" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="D92" s="13"/>
     </row>
     <row r="93">
       <c r="A93" s="1" t="s">
-        <v>207</v>
+        <v>210</v>
       </c>
       <c r="B93" s="8" t="s">
         <v>47</v>
       </c>
       <c r="C93" s="14" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="D93" s="13"/>
     </row>
     <row r="94">
       <c r="A94" s="1" t="s">
-        <v>208</v>
+        <v>211</v>
       </c>
       <c r="B94" s="8" t="s">
         <v>37</v>
       </c>
       <c r="C94" s="14" t="s">
-        <v>209</v>
+        <v>212</v>
       </c>
       <c r="D94" s="13"/>
     </row>
     <row r="95">
       <c r="A95" s="1" t="s">
-        <v>210</v>
+        <v>213</v>
       </c>
       <c r="B95" s="8" t="s">
-        <v>211</v>
+        <v>214</v>
       </c>
       <c r="C95" s="14" t="s">
-        <v>212</v>
+        <v>215</v>
       </c>
       <c r="D95" s="13" t="s">
-        <v>213</v>
+        <v>216</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" s="1" t="s">
-        <v>214</v>
+        <v>217</v>
       </c>
       <c r="B96" s="8" t="s">
         <v>34</v>
       </c>
       <c r="C96" s="14" t="s">
-        <v>215</v>
+        <v>218</v>
       </c>
       <c r="D96" s="13" t="s">
-        <v>213</v>
+        <v>216</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" s="1" t="s">
-        <v>216</v>
+        <v>219</v>
       </c>
       <c r="B97" s="8" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="C97" s="14" t="s">
-        <v>217</v>
+        <v>220</v>
       </c>
       <c r="D97" s="13" t="s">
-        <v>218</v>
+        <v>221</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" s="1" t="s">
-        <v>219</v>
+        <v>222</v>
       </c>
       <c r="B98" s="8" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="C98" s="14" t="s">
-        <v>220</v>
+        <v>223</v>
       </c>
       <c r="D98" s="13" t="s">
-        <v>221</v>
+        <v>224</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" s="1" t="s">
-        <v>222</v>
+        <v>225</v>
       </c>
       <c r="B99" s="8" t="s">
         <v>47</v>
       </c>
       <c r="C99" s="14" t="s">
-        <v>223</v>
+        <v>226</v>
       </c>
       <c r="D99" s="13"/>
     </row>
     <row r="100" ht="28.5">
       <c r="A100" s="1" t="s">
-        <v>224</v>
+        <v>227</v>
       </c>
       <c r="B100" s="8" t="s">
         <v>47</v>
       </c>
       <c r="C100" s="14" t="s">
-        <v>225</v>
+        <v>228</v>
       </c>
       <c r="D100" s="13"/>
     </row>
     <row r="101">
       <c r="A101" s="1" t="s">
-        <v>226</v>
+        <v>229</v>
       </c>
       <c r="B101" s="8" t="s">
         <v>47</v>
       </c>
       <c r="C101" s="14" t="s">
-        <v>227</v>
+        <v>230</v>
       </c>
       <c r="D101" s="13"/>
     </row>
     <row r="102">
       <c r="A102" s="1" t="s">
-        <v>228</v>
+        <v>231</v>
       </c>
       <c r="B102" s="8" t="s">
         <v>47</v>
       </c>
       <c r="C102" s="14" t="s">
-        <v>229</v>
+        <v>232</v>
       </c>
       <c r="D102" s="13"/>
     </row>
     <row r="103" ht="28.5">
       <c r="A103" s="1" t="s">
-        <v>230</v>
+        <v>233</v>
       </c>
       <c r="B103" s="8" t="s">
         <v>47</v>
       </c>
       <c r="C103" s="14" t="s">
-        <v>231</v>
+        <v>234</v>
       </c>
       <c r="D103" s="13"/>
     </row>
     <row r="104" ht="28.5">
       <c r="A104" s="1" t="s">
-        <v>232</v>
+        <v>235</v>
       </c>
       <c r="B104" s="8" t="s">
         <v>47</v>
       </c>
       <c r="C104" s="14" t="s">
-        <v>233</v>
+        <v>236</v>
       </c>
       <c r="D104" s="13"/>
     </row>
     <row r="105" ht="28.5">
       <c r="A105" s="1" t="s">
-        <v>234</v>
+        <v>237</v>
       </c>
       <c r="B105" s="8" t="s">
         <v>47</v>
       </c>
       <c r="C105" s="14" t="s">
-        <v>235</v>
+        <v>238</v>
       </c>
       <c r="D105" s="13"/>
     </row>
     <row r="106">
       <c r="A106" s="1" t="s">
-        <v>236</v>
+        <v>239</v>
       </c>
       <c r="B106" s="8" t="s">
         <v>47</v>
       </c>
       <c r="C106" s="14" t="s">
-        <v>237</v>
+        <v>240</v>
       </c>
       <c r="D106" s="13"/>
     </row>
     <row r="107">
       <c r="A107" s="1" t="s">
-        <v>238</v>
+        <v>241</v>
       </c>
       <c r="B107" s="8" t="s">
         <v>37</v>
       </c>
       <c r="C107" s="14" t="s">
-        <v>239</v>
+        <v>242</v>
       </c>
       <c r="D107" s="13" t="s">
         <v>32</v>
@@ -3393,13 +3399,13 @@
     </row>
     <row r="108">
       <c r="A108" s="1" t="s">
-        <v>240</v>
+        <v>243</v>
       </c>
       <c r="B108" s="8" t="s">
-        <v>241</v>
+        <v>244</v>
       </c>
       <c r="C108" s="14" t="s">
-        <v>242</v>
+        <v>245</v>
       </c>
       <c r="D108" s="13" t="s">
         <v>32</v>
@@ -3407,13 +3413,13 @@
     </row>
     <row r="109">
       <c r="A109" s="1" t="s">
-        <v>243</v>
+        <v>246</v>
       </c>
       <c r="B109" s="8" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="C109" s="14" t="s">
-        <v>217</v>
+        <v>220</v>
       </c>
       <c r="D109" s="13" t="s">
         <v>32</v>
@@ -3421,13 +3427,13 @@
     </row>
     <row r="110">
       <c r="A110" s="1" t="s">
-        <v>244</v>
+        <v>247</v>
       </c>
       <c r="B110" s="8" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="C110" s="14" t="s">
-        <v>220</v>
+        <v>223</v>
       </c>
       <c r="D110" s="13" t="s">
         <v>32</v>
@@ -3435,81 +3441,81 @@
     </row>
     <row r="111">
       <c r="A111" s="1" t="s">
-        <v>245</v>
+        <v>248</v>
       </c>
       <c r="B111" s="8" t="s">
-        <v>246</v>
+        <v>249</v>
       </c>
       <c r="C111" s="14" t="s">
-        <v>247</v>
+        <v>250</v>
       </c>
       <c r="D111" s="13" t="s">
-        <v>248</v>
+        <v>251</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" s="1" t="s">
-        <v>249</v>
+        <v>252</v>
       </c>
       <c r="B112" s="8" t="s">
         <v>47</v>
       </c>
       <c r="C112" s="14" t="s">
-        <v>250</v>
+        <v>253</v>
       </c>
       <c r="D112" s="13"/>
     </row>
     <row r="113">
       <c r="A113" s="1" t="s">
-        <v>251</v>
+        <v>254</v>
       </c>
       <c r="B113" s="8" t="s">
         <v>34</v>
       </c>
       <c r="C113" s="14" t="s">
-        <v>252</v>
+        <v>255</v>
       </c>
       <c r="D113" s="13" t="s">
-        <v>253</v>
+        <v>256</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" s="1" t="s">
-        <v>254</v>
+        <v>257</v>
       </c>
       <c r="B114" s="8" t="s">
         <v>47</v>
       </c>
       <c r="C114" s="14" t="s">
-        <v>255</v>
+        <v>258</v>
       </c>
       <c r="D114" s="13" t="s">
-        <v>256</v>
+        <v>259</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" s="1" t="s">
-        <v>257</v>
+        <v>260</v>
       </c>
       <c r="B115" s="8" t="s">
         <v>47</v>
       </c>
       <c r="C115" s="14" t="s">
-        <v>258</v>
+        <v>261</v>
       </c>
       <c r="D115" s="13" t="s">
-        <v>259</v>
+        <v>262</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" s="1" t="s">
-        <v>260</v>
+        <v>263</v>
       </c>
       <c r="B116" s="8" t="s">
         <v>37</v>
       </c>
       <c r="C116" s="14" t="s">
-        <v>261</v>
+        <v>264</v>
       </c>
       <c r="D116" s="13" t="s">
         <v>32</v>
@@ -3517,13 +3523,13 @@
     </row>
     <row r="117">
       <c r="A117" s="1" t="s">
-        <v>262</v>
+        <v>265</v>
       </c>
       <c r="B117" s="8" t="s">
-        <v>241</v>
+        <v>244</v>
       </c>
       <c r="C117" s="14" t="s">
-        <v>263</v>
+        <v>266</v>
       </c>
       <c r="D117" s="13" t="s">
         <v>32</v>
@@ -3531,209 +3537,209 @@
     </row>
     <row r="118">
       <c r="A118" s="1" t="s">
-        <v>264</v>
+        <v>267</v>
       </c>
       <c r="B118" s="8" t="s">
-        <v>265</v>
+        <v>268</v>
       </c>
       <c r="C118" s="14" t="s">
-        <v>247</v>
+        <v>250</v>
       </c>
       <c r="D118" s="13" t="s">
-        <v>266</v>
+        <v>269</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" s="1" t="s">
-        <v>267</v>
+        <v>270</v>
       </c>
       <c r="B119" s="8" t="s">
         <v>47</v>
       </c>
       <c r="C119" s="14" t="s">
-        <v>268</v>
+        <v>271</v>
       </c>
       <c r="D119" s="13"/>
     </row>
     <row r="120" ht="28.5">
       <c r="A120" s="1" t="s">
-        <v>269</v>
+        <v>272</v>
       </c>
       <c r="B120" s="8" t="s">
         <v>47</v>
       </c>
       <c r="C120" s="14" t="s">
-        <v>270</v>
+        <v>273</v>
       </c>
       <c r="D120" s="13"/>
     </row>
     <row r="121">
       <c r="A121" s="1" t="s">
-        <v>271</v>
+        <v>274</v>
       </c>
       <c r="B121" s="8" t="s">
         <v>47</v>
       </c>
       <c r="C121" s="14" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="D121" s="13"/>
     </row>
     <row r="122">
       <c r="A122" s="1" t="s">
-        <v>272</v>
+        <v>275</v>
       </c>
       <c r="B122" s="8" t="s">
         <v>47</v>
       </c>
       <c r="C122" s="14" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="D122" s="13"/>
     </row>
     <row r="123">
       <c r="A123" s="1" t="s">
-        <v>273</v>
+        <v>276</v>
       </c>
       <c r="B123" s="8" t="s">
         <v>47</v>
       </c>
       <c r="C123" s="14" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="D123" s="13"/>
     </row>
     <row r="124">
       <c r="A124" s="1" t="s">
-        <v>274</v>
+        <v>277</v>
       </c>
       <c r="B124" s="8" t="s">
         <v>47</v>
       </c>
       <c r="C124" s="14" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="D124" s="13"/>
     </row>
     <row r="125">
       <c r="A125" s="1" t="s">
-        <v>275</v>
+        <v>278</v>
       </c>
       <c r="B125" s="8" t="s">
         <v>47</v>
       </c>
       <c r="C125" s="14" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="D125" s="13"/>
     </row>
     <row r="126" ht="28.5">
       <c r="A126" s="1" t="s">
-        <v>276</v>
+        <v>279</v>
       </c>
       <c r="B126" s="8" t="s">
-        <v>277</v>
+        <v>280</v>
       </c>
       <c r="C126" s="14" t="s">
-        <v>278</v>
+        <v>281</v>
       </c>
       <c r="D126" s="13"/>
     </row>
     <row r="127">
       <c r="A127" s="1" t="s">
-        <v>279</v>
+        <v>282</v>
       </c>
       <c r="B127" s="8" t="s">
-        <v>280</v>
+        <v>283</v>
       </c>
       <c r="C127" s="14" t="s">
-        <v>281</v>
+        <v>284</v>
       </c>
       <c r="D127" s="13"/>
     </row>
     <row r="128">
       <c r="A128" s="1" t="s">
-        <v>282</v>
+        <v>285</v>
       </c>
       <c r="B128" s="8" t="s">
-        <v>283</v>
+        <v>286</v>
       </c>
       <c r="C128" s="14" t="s">
-        <v>284</v>
+        <v>287</v>
       </c>
       <c r="D128" s="13"/>
     </row>
     <row r="129">
       <c r="A129" s="1" t="s">
-        <v>285</v>
+        <v>288</v>
       </c>
       <c r="B129" s="8" t="s">
         <v>47</v>
       </c>
       <c r="C129" s="14" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="D129" s="13"/>
     </row>
     <row r="130">
       <c r="A130" s="1" t="s">
-        <v>286</v>
+        <v>289</v>
       </c>
       <c r="B130" s="8" t="s">
         <v>47</v>
       </c>
       <c r="C130" s="14" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="D130" s="13"/>
     </row>
     <row r="131" ht="28.5">
       <c r="A131" s="1" t="s">
-        <v>287</v>
+        <v>290</v>
       </c>
       <c r="B131" s="8" t="s">
-        <v>288</v>
+        <v>291</v>
       </c>
       <c r="C131" s="14" t="s">
-        <v>289</v>
+        <v>292</v>
       </c>
       <c r="D131" s="13"/>
     </row>
     <row r="132">
       <c r="A132" s="1" t="s">
-        <v>290</v>
+        <v>293</v>
       </c>
       <c r="B132" s="8" t="s">
         <v>47</v>
       </c>
       <c r="C132" s="14" t="s">
-        <v>291</v>
+        <v>294</v>
       </c>
       <c r="D132" s="13" t="s">
-        <v>292</v>
+        <v>295</v>
       </c>
     </row>
     <row r="133">
       <c r="A133" s="1" t="s">
-        <v>293</v>
+        <v>296</v>
       </c>
       <c r="B133" s="8" t="s">
-        <v>294</v>
+        <v>297</v>
       </c>
       <c r="C133" s="14" t="s">
-        <v>295</v>
+        <v>298</v>
       </c>
       <c r="D133" s="13"/>
     </row>
     <row r="134">
       <c r="A134" s="1" t="s">
-        <v>296</v>
+        <v>299</v>
       </c>
       <c r="B134" s="8" t="s">
         <v>26</v>
       </c>
       <c r="C134" s="14" t="s">
-        <v>297</v>
+        <v>300</v>
       </c>
       <c r="D134" s="13" t="s">
         <v>32</v>
@@ -3741,13 +3747,13 @@
     </row>
     <row r="135">
       <c r="A135" s="1" t="s">
-        <v>298</v>
+        <v>301</v>
       </c>
       <c r="B135" s="8" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="C135" s="14" t="s">
-        <v>299</v>
+        <v>302</v>
       </c>
       <c r="D135" s="13" t="s">
         <v>32</v>
@@ -3755,13 +3761,13 @@
     </row>
     <row r="136">
       <c r="A136" s="1" t="s">
-        <v>300</v>
+        <v>303</v>
       </c>
       <c r="B136" s="8" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="C136" s="14" t="s">
-        <v>301</v>
+        <v>304</v>
       </c>
       <c r="D136" s="13" t="s">
         <v>32</v>
@@ -3769,36 +3775,36 @@
     </row>
     <row r="137">
       <c r="A137" s="1" t="s">
-        <v>302</v>
+        <v>305</v>
       </c>
       <c r="B137" s="8" t="s">
         <v>30</v>
       </c>
       <c r="C137" s="14" t="s">
-        <v>303</v>
+        <v>306</v>
       </c>
       <c r="D137" s="13"/>
     </row>
     <row r="138">
       <c r="A138" s="1" t="s">
-        <v>304</v>
+        <v>307</v>
       </c>
       <c r="B138" s="8" t="s">
         <v>34</v>
       </c>
       <c r="C138" s="14" t="s">
-        <v>305</v>
+        <v>308</v>
       </c>
       <c r="D138" s="13" t="s">
-        <v>306</v>
+        <v>309</v>
       </c>
     </row>
     <row r="139">
       <c r="A139" s="1" t="s">
-        <v>307</v>
+        <v>310</v>
       </c>
       <c r="B139" s="8" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="C139" s="14" t="s">
         <v>44</v>
@@ -3807,237 +3813,237 @@
     </row>
     <row r="140">
       <c r="A140" s="1" t="s">
-        <v>308</v>
+        <v>311</v>
       </c>
       <c r="B140" s="8" t="s">
         <v>47</v>
       </c>
       <c r="C140" s="14" t="s">
-        <v>309</v>
+        <v>312</v>
       </c>
       <c r="D140" s="13"/>
     </row>
     <row r="141">
       <c r="A141" s="1" t="s">
-        <v>310</v>
+        <v>313</v>
       </c>
       <c r="B141" s="8" t="s">
         <v>47</v>
       </c>
       <c r="C141" s="14" t="s">
-        <v>311</v>
+        <v>314</v>
       </c>
       <c r="D141" s="13"/>
     </row>
     <row r="142">
       <c r="A142" s="1" t="s">
-        <v>312</v>
+        <v>315</v>
       </c>
       <c r="B142" s="8" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="C142" s="14" t="s">
-        <v>313</v>
+        <v>316</v>
       </c>
       <c r="D142" s="13"/>
     </row>
     <row r="143">
       <c r="A143" s="1" t="s">
-        <v>314</v>
+        <v>317</v>
       </c>
       <c r="B143" s="8" t="s">
         <v>47</v>
       </c>
       <c r="C143" s="14" t="s">
-        <v>315</v>
+        <v>318</v>
       </c>
       <c r="D143" s="13"/>
     </row>
     <row r="144">
       <c r="A144" s="1" t="s">
-        <v>316</v>
+        <v>319</v>
       </c>
       <c r="B144" s="8" t="s">
         <v>47</v>
       </c>
       <c r="C144" s="14" t="s">
-        <v>317</v>
+        <v>320</v>
       </c>
       <c r="D144" s="13"/>
     </row>
     <row r="145">
       <c r="A145" s="1" t="s">
-        <v>318</v>
+        <v>321</v>
       </c>
       <c r="B145" s="8" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="C145" s="14" t="s">
-        <v>319</v>
+        <v>322</v>
       </c>
       <c r="D145" s="13" t="s">
-        <v>320</v>
+        <v>323</v>
       </c>
     </row>
     <row r="146">
       <c r="A146" s="1" t="s">
-        <v>321</v>
+        <v>324</v>
       </c>
       <c r="B146" s="8" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="C146" s="14" t="s">
-        <v>322</v>
+        <v>325</v>
       </c>
       <c r="D146" s="13" t="s">
-        <v>323</v>
+        <v>326</v>
       </c>
     </row>
     <row r="147">
       <c r="A147" s="1" t="s">
-        <v>324</v>
+        <v>327</v>
       </c>
       <c r="B147" s="8" t="s">
         <v>37</v>
       </c>
       <c r="C147" s="14" t="s">
-        <v>325</v>
+        <v>328</v>
       </c>
       <c r="D147" s="13" t="s">
-        <v>306</v>
+        <v>309</v>
       </c>
     </row>
     <row r="148">
       <c r="A148" s="1" t="s">
-        <v>326</v>
+        <v>329</v>
       </c>
       <c r="B148" s="8" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="C148" s="14" t="s">
-        <v>327</v>
+        <v>330</v>
       </c>
       <c r="D148" s="13"/>
     </row>
     <row r="149">
       <c r="A149" s="1" t="s">
-        <v>328</v>
+        <v>331</v>
       </c>
       <c r="B149" s="8" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="C149" s="14" t="s">
-        <v>329</v>
+        <v>332</v>
       </c>
       <c r="D149" s="13"/>
     </row>
     <row r="150">
       <c r="A150" s="1" t="s">
-        <v>330</v>
+        <v>333</v>
       </c>
       <c r="B150" s="8" t="s">
-        <v>331</v>
+        <v>334</v>
       </c>
       <c r="C150" s="14" t="s">
-        <v>332</v>
+        <v>335</v>
       </c>
       <c r="D150" s="13" t="s">
-        <v>333</v>
+        <v>336</v>
       </c>
     </row>
     <row r="151" ht="28.5">
       <c r="A151" s="1" t="s">
-        <v>334</v>
+        <v>337</v>
       </c>
       <c r="B151" s="8" t="s">
-        <v>335</v>
+        <v>338</v>
       </c>
       <c r="C151" s="14" t="s">
-        <v>336</v>
+        <v>339</v>
       </c>
       <c r="D151" s="13" t="s">
-        <v>337</v>
+        <v>340</v>
       </c>
     </row>
     <row r="152" ht="28.5">
       <c r="A152" s="1" t="s">
-        <v>338</v>
+        <v>341</v>
       </c>
       <c r="B152" s="8" t="s">
         <v>40</v>
       </c>
       <c r="C152" s="14" t="s">
-        <v>339</v>
+        <v>342</v>
       </c>
       <c r="D152" s="13" t="s">
-        <v>340</v>
+        <v>343</v>
       </c>
     </row>
     <row r="153" ht="28.5">
       <c r="A153" s="1" t="s">
-        <v>341</v>
+        <v>344</v>
       </c>
       <c r="B153" s="8" t="s">
         <v>34</v>
       </c>
       <c r="C153" s="14" t="s">
-        <v>342</v>
+        <v>345</v>
       </c>
       <c r="D153" s="13" t="s">
-        <v>343</v>
+        <v>346</v>
       </c>
     </row>
     <row r="154" ht="28.5">
       <c r="A154" s="1" t="s">
-        <v>344</v>
+        <v>347</v>
       </c>
       <c r="B154" s="8" t="s">
         <v>37</v>
       </c>
       <c r="C154" s="14" t="s">
-        <v>345</v>
+        <v>348</v>
       </c>
       <c r="D154" s="13" t="s">
-        <v>346</v>
+        <v>349</v>
       </c>
     </row>
     <row r="155">
       <c r="A155" s="1" t="s">
-        <v>347</v>
+        <v>350</v>
       </c>
       <c r="B155" s="8" t="s">
         <v>61</v>
       </c>
       <c r="C155" s="14" t="s">
-        <v>348</v>
+        <v>351</v>
       </c>
       <c r="D155" s="13" t="s">
-        <v>349</v>
+        <v>352</v>
       </c>
     </row>
     <row r="156">
       <c r="A156" s="1" t="s">
-        <v>350</v>
+        <v>353</v>
       </c>
       <c r="B156" s="8" t="s">
         <v>34</v>
       </c>
       <c r="C156" s="14" t="s">
-        <v>351</v>
+        <v>354</v>
       </c>
       <c r="D156" s="13" t="s">
-        <v>352</v>
+        <v>355</v>
       </c>
     </row>
     <row r="157">
       <c r="A157" s="1" t="s">
-        <v>353</v>
+        <v>356</v>
       </c>
       <c r="B157" s="8" t="s">
         <v>37</v>
       </c>
       <c r="C157" s="14" t="s">
-        <v>354</v>
+        <v>357</v>
       </c>
       <c r="D157" s="13" t="s">
         <v>32</v>
@@ -4045,27 +4051,27 @@
     </row>
     <row r="158">
       <c r="A158" s="1" t="s">
-        <v>355</v>
+        <v>358</v>
       </c>
       <c r="B158" s="8" t="s">
-        <v>241</v>
+        <v>244</v>
       </c>
       <c r="C158" s="14" t="s">
-        <v>356</v>
+        <v>359</v>
       </c>
       <c r="D158" s="13" t="s">
-        <v>357</v>
+        <v>360</v>
       </c>
     </row>
     <row r="159" ht="28.5">
       <c r="A159" s="1" t="s">
-        <v>358</v>
+        <v>361</v>
       </c>
       <c r="B159" s="8" t="s">
-        <v>265</v>
+        <v>268</v>
       </c>
       <c r="C159" s="14" t="s">
-        <v>359</v>
+        <v>362</v>
       </c>
       <c r="D159" s="13" t="s">
         <v>32</v>
@@ -4073,97 +4079,97 @@
     </row>
     <row r="160">
       <c r="A160" s="1" t="s">
-        <v>360</v>
+        <v>363</v>
       </c>
       <c r="B160" s="8" t="s">
         <v>47</v>
       </c>
       <c r="C160" s="14" t="s">
-        <v>361</v>
+        <v>364</v>
       </c>
       <c r="D160" s="13"/>
     </row>
     <row r="161">
       <c r="A161" s="1" t="s">
-        <v>362</v>
+        <v>365</v>
       </c>
       <c r="B161" s="8" t="s">
         <v>47</v>
       </c>
       <c r="C161" s="14" t="s">
-        <v>363</v>
+        <v>366</v>
       </c>
       <c r="D161" s="13"/>
     </row>
     <row r="162">
       <c r="A162" s="1" t="s">
-        <v>364</v>
+        <v>367</v>
       </c>
       <c r="B162" s="8" t="s">
         <v>47</v>
       </c>
       <c r="C162" s="14" t="s">
-        <v>365</v>
+        <v>368</v>
       </c>
       <c r="D162" s="13"/>
     </row>
     <row r="163">
       <c r="A163" s="1" t="s">
-        <v>366</v>
+        <v>369</v>
       </c>
       <c r="B163" s="8" t="s">
         <v>47</v>
       </c>
       <c r="C163" s="14" t="s">
-        <v>367</v>
+        <v>370</v>
       </c>
       <c r="D163" s="13"/>
     </row>
     <row r="164">
       <c r="A164" s="1" t="s">
-        <v>368</v>
+        <v>371</v>
       </c>
       <c r="B164" s="8" t="s">
         <v>47</v>
       </c>
       <c r="C164" s="14" t="s">
-        <v>369</v>
+        <v>372</v>
       </c>
       <c r="D164" s="13"/>
     </row>
     <row r="165">
       <c r="A165" s="1" t="s">
-        <v>370</v>
+        <v>373</v>
       </c>
       <c r="B165" s="8" t="s">
         <v>47</v>
       </c>
       <c r="C165" s="14" t="s">
-        <v>371</v>
+        <v>374</v>
       </c>
       <c r="D165" s="13"/>
     </row>
     <row r="166" ht="42.75">
       <c r="A166" s="1" t="s">
-        <v>372</v>
+        <v>375</v>
       </c>
       <c r="B166" s="8" t="s">
         <v>47</v>
       </c>
       <c r="C166" s="14" t="s">
-        <v>373</v>
+        <v>376</v>
       </c>
       <c r="D166" s="13"/>
     </row>
     <row r="167">
       <c r="A167" s="1" t="s">
-        <v>374</v>
+        <v>377</v>
       </c>
       <c r="B167" s="8" t="s">
         <v>47</v>
       </c>
       <c r="C167" s="14" t="s">
-        <v>375</v>
+        <v>378</v>
       </c>
       <c r="D167" s="13" t="s">
         <v>32</v>
@@ -4171,69 +4177,69 @@
     </row>
     <row r="168">
       <c r="A168" s="1" t="s">
-        <v>376</v>
+        <v>379</v>
       </c>
       <c r="B168" s="8" t="s">
         <v>47</v>
       </c>
       <c r="C168" s="14" t="s">
-        <v>377</v>
+        <v>380</v>
       </c>
       <c r="D168" s="13" t="s">
-        <v>378</v>
+        <v>381</v>
       </c>
     </row>
     <row r="169">
       <c r="A169" s="1" t="s">
-        <v>379</v>
+        <v>382</v>
       </c>
       <c r="B169" s="8" t="s">
-        <v>189</v>
+        <v>192</v>
       </c>
       <c r="C169" s="14" t="s">
-        <v>380</v>
+        <v>383</v>
       </c>
       <c r="D169" s="13" t="s">
-        <v>381</v>
+        <v>384</v>
       </c>
     </row>
     <row r="170">
       <c r="A170" s="1" t="s">
-        <v>382</v>
+        <v>385</v>
       </c>
       <c r="B170" s="8" t="s">
         <v>34</v>
       </c>
       <c r="C170" s="14" t="s">
-        <v>383</v>
+        <v>386</v>
       </c>
       <c r="D170" s="13" t="s">
-        <v>384</v>
+        <v>387</v>
       </c>
     </row>
     <row r="171">
       <c r="A171" s="1" t="s">
-        <v>385</v>
+        <v>388</v>
       </c>
       <c r="B171" s="8" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="C171" s="14" t="s">
-        <v>386</v>
+        <v>389</v>
       </c>
       <c r="D171" s="13" t="s">
-        <v>384</v>
+        <v>387</v>
       </c>
     </row>
     <row r="172">
       <c r="A172" s="1" t="s">
-        <v>387</v>
+        <v>390</v>
       </c>
       <c r="B172" s="8" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="C172" s="14" t="s">
-        <v>388</v>
+        <v>391</v>
       </c>
       <c r="D172" s="13" t="s">
         <v>32</v>
@@ -4241,13 +4247,13 @@
     </row>
     <row r="173">
       <c r="A173" s="1" t="s">
-        <v>389</v>
+        <v>392</v>
       </c>
       <c r="B173" s="8" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="C173" s="14" t="s">
-        <v>390</v>
+        <v>393</v>
       </c>
       <c r="D173" s="13" t="s">
         <v>32</v>
@@ -4255,41 +4261,41 @@
     </row>
     <row r="174">
       <c r="A174" s="1" t="s">
-        <v>391</v>
+        <v>394</v>
       </c>
       <c r="B174" s="8" t="s">
         <v>37</v>
       </c>
       <c r="C174" s="14" t="s">
-        <v>392</v>
+        <v>395</v>
       </c>
       <c r="D174" s="13" t="s">
-        <v>393</v>
+        <v>396</v>
       </c>
     </row>
     <row r="175">
       <c r="A175" s="1" t="s">
-        <v>394</v>
+        <v>397</v>
       </c>
       <c r="B175" s="8" t="s">
-        <v>241</v>
+        <v>244</v>
       </c>
       <c r="C175" s="14" t="s">
-        <v>395</v>
+        <v>398</v>
       </c>
       <c r="D175" s="13" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="176">
       <c r="A176" s="1" t="s">
-        <v>397</v>
+        <v>400</v>
       </c>
       <c r="B176" s="8" t="s">
-        <v>265</v>
+        <v>268</v>
       </c>
       <c r="C176" s="14" t="s">
-        <v>398</v>
+        <v>401</v>
       </c>
       <c r="D176" s="13" t="s">
         <v>32</v>
@@ -4297,78 +4303,78 @@
     </row>
     <row r="177">
       <c r="A177" s="1" t="s">
-        <v>399</v>
+        <v>402</v>
       </c>
       <c r="B177" s="8" t="s">
-        <v>277</v>
+        <v>280</v>
       </c>
       <c r="C177" s="14" t="s">
-        <v>400</v>
+        <v>403</v>
       </c>
       <c r="D177" s="13" t="s">
-        <v>401</v>
+        <v>404</v>
       </c>
     </row>
     <row r="178">
       <c r="A178" s="1" t="s">
-        <v>402</v>
+        <v>405</v>
       </c>
       <c r="B178" s="8" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="C178" s="14" t="s">
-        <v>403</v>
+        <v>406</v>
       </c>
       <c r="D178" s="13" t="s">
-        <v>404</v>
+        <v>407</v>
       </c>
     </row>
     <row r="179">
       <c r="A179" s="1" t="s">
-        <v>405</v>
+        <v>408</v>
       </c>
       <c r="B179" s="8" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="C179" s="14" t="s">
-        <v>406</v>
+        <v>409</v>
       </c>
       <c r="D179" s="13" t="s">
-        <v>407</v>
+        <v>410</v>
       </c>
     </row>
     <row r="180">
       <c r="A180" s="1" t="s">
-        <v>408</v>
+        <v>411</v>
       </c>
       <c r="B180" s="8" t="s">
-        <v>409</v>
+        <v>412</v>
       </c>
       <c r="C180" s="14" t="s">
-        <v>410</v>
+        <v>413</v>
       </c>
       <c r="D180" s="13"/>
     </row>
     <row r="181">
       <c r="A181" s="1" t="s">
-        <v>411</v>
+        <v>414</v>
       </c>
       <c r="B181" s="8" t="s">
         <v>47</v>
       </c>
       <c r="C181" s="14" t="s">
-        <v>412</v>
+        <v>415</v>
       </c>
       <c r="D181" s="13" t="s">
-        <v>413</v>
+        <v>295</v>
       </c>
     </row>
     <row r="183" ht="300" customHeight="1">
       <c r="A183" s="1" t="s">
-        <v>414</v>
+        <v>416</v>
       </c>
       <c r="B183" s="21" t="s">
-        <v>415</v>
+        <v>417</v>
       </c>
       <c r="C183" s="21"/>
       <c r="D183" s="21"/>
